--- a/medicine/Mort/Greenwood_Cemetery/Greenwood_Cemetery.xlsx
+++ b/medicine/Mort/Greenwood_Cemetery/Greenwood_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Greenwood est un cimetière situé dans le centre-ville de Jackson, Mississippi. Encore en usage, il est créé par une subvention foncière fédérale le 21 novembre 1821. Il est à l'origine connu simplement comme « le cimetière » et plus tard en tant que « cimetière de la ville » avant que l'adoption du nom actuel en 1899. C'est le lieu de sépulture de généraux confédérés, d'anciens gouverneurs du Mississippi, de maires de Jackson, ainsi que d'autres personnages célèbres, dont le plus récent qui est l'auteur Eudora Welty. Les tombes de plus de 100 soldats « inconnus » confédérés y sont également situées. Le cimetière de  Greenwood est inscrit sur le Registre national des lieux historiques et des monuments historiques du Mississippi en 1984.
 Le cimetière de type « parc paysager » contient la plus grande collection de rosiers non greffés de variétés anciennes et modernes du pays, plusieurs centaines d'arbustes représentant plus de 40 variétés ainsi que de nombreux bulbes rustiques et autres arbustes à fleurs et des arbres.
@@ -514,23 +526,96 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Généraux confédérés
-Daniel Weisiger Adams
+          <t>Généraux confédérés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Daniel Weisiger Adams
 William Wirt Adams
 William Barksdale
 Samuel Wragg Ferguson
 Richard Griffith
-James Argyle Smith
-Gouverneurs du Mississippi
-George Poindexter
+James Argyle Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Greenwood_Cemetery</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greenwood_Cemetery</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tombes notables</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gouverneurs du Mississippi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>George Poindexter
 Abram Marshall Scott
 Charles Lynch
 Alexander Gallatin McNutt
 Albert Gallatin Brun
 John Isaac Guion
-William Lewis Sharkey
-Autres
-Edmund Richardson
+William Lewis Sharkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Greenwood_Cemetery</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Greenwood_Cemetery</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tombes notables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Edmund Richardson
 Erasmus R. Burt
 James D. Lynch
 Eudora Welty
